--- a/Data_Mun_2023.xlsx
+++ b/Data_Mun_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofierroz/Dropbox/Academia/Projects/Project_Digital_Index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0CD046-92F3-BF42-8F93-5B6687798872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A7BD72F-07EA-3F46-8727-A8A5CEFDBF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{D6B413A0-37DC-D449-AC51-3D41F2F24524}"/>
+    <workbookView xWindow="2400" yWindow="920" windowWidth="14880" windowHeight="18560" xr2:uid="{D6B413A0-37DC-D449-AC51-3D41F2F24524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>IQUIQUE</t>
   </si>
@@ -1085,6 +1085,9 @@
   </si>
   <si>
     <t>Comuna</t>
+  </si>
+  <si>
+    <t>Num_Planta</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1560,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1602,12 +1616,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1985,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AE4A3-B08C-5847-8EC3-00C1914B88BD}">
-  <dimension ref="A1:J346"/>
+  <dimension ref="A1:K346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K336" sqref="K336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2001,9 +2018,10 @@
     <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>345</v>
       </c>
@@ -2034,8 +2052,11 @@
       <c r="J1" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1101</v>
       </c>
@@ -2066,8 +2087,11 @@
       <c r="J2">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1107</v>
       </c>
@@ -2095,8 +2119,11 @@
       <c r="J3">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1401</v>
       </c>
@@ -2127,8 +2154,11 @@
       <c r="J4">
         <v>33.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1402</v>
       </c>
@@ -2157,7 +2187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1403</v>
       </c>
@@ -2188,8 +2218,11 @@
       <c r="J6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1404</v>
       </c>
@@ -2220,8 +2253,11 @@
       <c r="J7">
         <v>58.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1405</v>
       </c>
@@ -2250,7 +2286,7 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2101</v>
       </c>
@@ -2281,8 +2317,11 @@
       <c r="J9">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2102</v>
       </c>
@@ -2313,8 +2352,11 @@
       <c r="J10">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2103</v>
       </c>
@@ -2345,8 +2387,11 @@
       <c r="J11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2104</v>
       </c>
@@ -2375,7 +2420,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2201</v>
       </c>
@@ -2406,8 +2451,11 @@
       <c r="J13">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2202</v>
       </c>
@@ -2435,8 +2483,11 @@
       <c r="J14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2203</v>
       </c>
@@ -2467,8 +2518,11 @@
       <c r="J15">
         <v>41.93</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2301</v>
       </c>
@@ -2499,8 +2553,11 @@
       <c r="J16">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2302</v>
       </c>
@@ -2531,8 +2588,11 @@
       <c r="J17">
         <v>9.89</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3101</v>
       </c>
@@ -2563,8 +2623,11 @@
       <c r="J18">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3102</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="J19">
         <v>10.32</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3103</v>
       </c>
@@ -2627,8 +2693,11 @@
       <c r="J20">
         <v>22.47</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3201</v>
       </c>
@@ -2659,8 +2728,11 @@
       <c r="J21">
         <v>11.46</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3202</v>
       </c>
@@ -2691,8 +2763,11 @@
       <c r="J22">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3301</v>
       </c>
@@ -2723,8 +2798,11 @@
       <c r="J23">
         <v>11.51</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3302</v>
       </c>
@@ -2755,8 +2833,11 @@
       <c r="J24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3303</v>
       </c>
@@ -2787,8 +2868,11 @@
       <c r="J25">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3304</v>
       </c>
@@ -2819,8 +2903,11 @@
       <c r="J26">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4101</v>
       </c>
@@ -2851,8 +2938,11 @@
       <c r="J27">
         <v>9.83</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>4102</v>
       </c>
@@ -2883,8 +2973,11 @@
       <c r="J28">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4103</v>
       </c>
@@ -2915,8 +3008,11 @@
       <c r="J29">
         <v>9.4700000000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4104</v>
       </c>
@@ -2947,8 +3043,11 @@
       <c r="J30">
         <v>67.66</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4105</v>
       </c>
@@ -2979,8 +3078,11 @@
       <c r="J31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4106</v>
       </c>
@@ -3011,8 +3113,11 @@
       <c r="J32">
         <v>35.450000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4201</v>
       </c>
@@ -3041,7 +3146,7 @@
         <v>33.14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>4202</v>
       </c>
@@ -3072,8 +3177,11 @@
       <c r="J34">
         <v>78.37</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4203</v>
       </c>
@@ -3104,8 +3212,11 @@
       <c r="J35">
         <v>17.71</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>4204</v>
       </c>
@@ -3134,7 +3245,7 @@
         <v>39.03</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4301</v>
       </c>
@@ -3165,8 +3276,11 @@
       <c r="J37">
         <v>20.37</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4302</v>
       </c>
@@ -3197,8 +3311,11 @@
       <c r="J38">
         <v>53.36</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4303</v>
       </c>
@@ -3229,8 +3346,11 @@
       <c r="J39">
         <v>48.48</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4304</v>
       </c>
@@ -3259,7 +3379,7 @@
         <v>43.24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4305</v>
       </c>
@@ -3290,8 +3410,11 @@
       <c r="J41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>5101</v>
       </c>
@@ -3322,8 +3445,11 @@
       <c r="J42">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>5102</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="J43">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>5103</v>
       </c>
@@ -3383,8 +3512,11 @@
       <c r="J44">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>5104</v>
       </c>
@@ -3415,8 +3547,11 @@
       <c r="J45">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>5105</v>
       </c>
@@ -3447,8 +3582,11 @@
       <c r="J46">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>5107</v>
       </c>
@@ -3479,8 +3617,11 @@
       <c r="J47">
         <v>16.59</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>5109</v>
       </c>
@@ -3511,8 +3652,11 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>5201</v>
       </c>
@@ -3543,8 +3687,11 @@
       <c r="J49">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>5301</v>
       </c>
@@ -3575,8 +3722,11 @@
       <c r="J50">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>5302</v>
       </c>
@@ -3607,8 +3757,11 @@
       <c r="J51">
         <v>20.94</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>5303</v>
       </c>
@@ -3639,8 +3792,11 @@
       <c r="J52">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>5304</v>
       </c>
@@ -3671,8 +3827,11 @@
       <c r="J53">
         <v>36.549999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>5401</v>
       </c>
@@ -3703,8 +3862,11 @@
       <c r="J54">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>5402</v>
       </c>
@@ -3735,8 +3897,11 @@
       <c r="J55">
         <v>35.880000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>5403</v>
       </c>
@@ -3767,8 +3932,11 @@
       <c r="J56">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>5404</v>
       </c>
@@ -3799,8 +3967,11 @@
       <c r="J57">
         <v>55.23</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>5405</v>
       </c>
@@ -3831,8 +4002,11 @@
       <c r="J58">
         <v>30.66</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>5501</v>
       </c>
@@ -3863,8 +4037,11 @@
       <c r="J59">
         <v>13.19</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>5502</v>
       </c>
@@ -3895,8 +4072,11 @@
       <c r="J60">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>5503</v>
       </c>
@@ -3927,8 +4107,11 @@
       <c r="J61">
         <v>28.14</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>5504</v>
       </c>
@@ -3959,8 +4142,11 @@
       <c r="J62">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>5506</v>
       </c>
@@ -3991,8 +4177,11 @@
       <c r="J63">
         <v>13.92</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>5601</v>
       </c>
@@ -4023,8 +4212,11 @@
       <c r="J64">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>5602</v>
       </c>
@@ -4053,7 +4245,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>5603</v>
       </c>
@@ -4084,8 +4276,11 @@
       <c r="J66">
         <v>7.57</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>5604</v>
       </c>
@@ -4116,8 +4311,11 @@
       <c r="J67">
         <v>6.88</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>5605</v>
       </c>
@@ -4148,8 +4346,11 @@
       <c r="J68">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>5606</v>
       </c>
@@ -4180,8 +4381,11 @@
       <c r="J69">
         <v>40.82</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>5701</v>
       </c>
@@ -4212,8 +4416,11 @@
       <c r="J70">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>5702</v>
       </c>
@@ -4244,8 +4451,11 @@
       <c r="J71">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>5703</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="J72">
         <v>25.14</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>5704</v>
       </c>
@@ -4308,8 +4521,11 @@
       <c r="J73">
         <v>42.01</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>5705</v>
       </c>
@@ -4340,8 +4556,11 @@
       <c r="J74">
         <v>58.34</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>5706</v>
       </c>
@@ -4372,8 +4591,11 @@
       <c r="J75">
         <v>32.29</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>5801</v>
       </c>
@@ -4404,8 +4626,11 @@
       <c r="J76">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>5802</v>
       </c>
@@ -4436,8 +4661,11 @@
       <c r="J77">
         <v>14.79</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>5803</v>
       </c>
@@ -4468,8 +4696,11 @@
       <c r="J78">
         <v>29.68</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>5804</v>
       </c>
@@ -4500,8 +4731,11 @@
       <c r="J79">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>6101</v>
       </c>
@@ -4532,8 +4766,11 @@
       <c r="J80">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>6102</v>
       </c>
@@ -4564,8 +4801,11 @@
       <c r="J81">
         <v>44.55</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>6103</v>
       </c>
@@ -4596,8 +4836,11 @@
       <c r="J82">
         <v>56.83</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>6104</v>
       </c>
@@ -4628,8 +4871,11 @@
       <c r="J83">
         <v>39.39</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>6105</v>
       </c>
@@ -4660,8 +4906,11 @@
       <c r="J84">
         <v>22.83</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>6106</v>
       </c>
@@ -4692,8 +4941,11 @@
       <c r="J85">
         <v>9.77</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>6107</v>
       </c>
@@ -4724,8 +4976,11 @@
       <c r="J86">
         <v>59.48</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>6108</v>
       </c>
@@ -4756,8 +5011,11 @@
       <c r="J87">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>6109</v>
       </c>
@@ -4788,8 +5046,11 @@
       <c r="J88">
         <v>57.79</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>6110</v>
       </c>
@@ -4820,8 +5081,11 @@
       <c r="J89">
         <v>17.29</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K89">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>6111</v>
       </c>
@@ -4852,8 +5116,11 @@
       <c r="J90">
         <v>30.68</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K90">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>6112</v>
       </c>
@@ -4884,8 +5151,11 @@
       <c r="J91">
         <v>13.07</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>6113</v>
       </c>
@@ -4916,8 +5186,11 @@
       <c r="J92">
         <v>47.52</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>6114</v>
       </c>
@@ -4948,8 +5221,11 @@
       <c r="J93">
         <v>42.67</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>6115</v>
       </c>
@@ -4978,7 +5254,7 @@
         <v>20.73</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>6116</v>
       </c>
@@ -5009,8 +5285,11 @@
       <c r="J95">
         <v>40.28</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>6117</v>
       </c>
@@ -5041,8 +5320,11 @@
       <c r="J96">
         <v>43.58</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>6201</v>
       </c>
@@ -5073,8 +5355,11 @@
       <c r="J97">
         <v>21.35</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>6202</v>
       </c>
@@ -5102,8 +5387,11 @@
       <c r="J98">
         <v>61.55</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>6203</v>
       </c>
@@ -5134,8 +5422,11 @@
       <c r="J99">
         <v>43.29</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>6204</v>
       </c>
@@ -5166,8 +5457,11 @@
       <c r="J100">
         <v>50.42</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K100">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>6205</v>
       </c>
@@ -5198,8 +5492,11 @@
       <c r="J101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K101">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>6206</v>
       </c>
@@ -5230,8 +5527,11 @@
       <c r="J102">
         <v>66.41</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K102">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>6301</v>
       </c>
@@ -5262,8 +5562,11 @@
       <c r="J103">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K103">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>6302</v>
       </c>
@@ -5294,8 +5597,11 @@
       <c r="J104">
         <v>40.15</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K104">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>6303</v>
       </c>
@@ -5326,8 +5632,11 @@
       <c r="J105">
         <v>40.630000000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K105">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>6304</v>
       </c>
@@ -5358,8 +5667,11 @@
       <c r="J106">
         <v>63.14</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>6305</v>
       </c>
@@ -5390,8 +5702,11 @@
       <c r="J107">
         <v>35.65</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K107">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>6306</v>
       </c>
@@ -5422,8 +5737,11 @@
       <c r="J108">
         <v>68.44</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K108">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>6307</v>
       </c>
@@ -5454,8 +5772,11 @@
       <c r="J109">
         <v>38.909999999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K109">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>6308</v>
       </c>
@@ -5486,8 +5807,11 @@
       <c r="J110">
         <v>72.08</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K110">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>6309</v>
       </c>
@@ -5515,8 +5839,11 @@
       <c r="J111">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>6310</v>
       </c>
@@ -5547,8 +5874,11 @@
       <c r="J112">
         <v>39.840000000000003</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K112">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>7101</v>
       </c>
@@ -5579,8 +5909,11 @@
       <c r="J113">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K113">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>7102</v>
       </c>
@@ -5611,8 +5944,11 @@
       <c r="J114">
         <v>20.12</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K114">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>7103</v>
       </c>
@@ -5643,8 +5979,11 @@
       <c r="J115">
         <v>63.59</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K115">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>7104</v>
       </c>
@@ -5675,8 +6014,11 @@
       <c r="J116">
         <v>25.93</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>7105</v>
       </c>
@@ -5707,8 +6049,11 @@
       <c r="J117">
         <v>17.190000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K117">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>7106</v>
       </c>
@@ -5739,8 +6084,11 @@
       <c r="J118">
         <v>67.98</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>7107</v>
       </c>
@@ -5771,8 +6119,11 @@
       <c r="J119">
         <v>55.77</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K119">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>7108</v>
       </c>
@@ -5803,8 +6154,11 @@
       <c r="J120">
         <v>66.45</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K120">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>7109</v>
       </c>
@@ -5835,8 +6189,11 @@
       <c r="J121">
         <v>45.32</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K121">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>7110</v>
       </c>
@@ -5861,8 +6218,11 @@
       <c r="J122">
         <v>45.17</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K122">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>7201</v>
       </c>
@@ -5893,8 +6253,11 @@
       <c r="J123">
         <v>17.55</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K123">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>7202</v>
       </c>
@@ -5925,8 +6288,11 @@
       <c r="J124">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K124">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>7203</v>
       </c>
@@ -5957,8 +6323,11 @@
       <c r="J125">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K125">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>7301</v>
       </c>
@@ -5989,8 +6358,11 @@
       <c r="J126">
         <v>10.42</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K126">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>7302</v>
       </c>
@@ -6021,8 +6393,11 @@
       <c r="J127">
         <v>38.549999999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K127">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>7303</v>
       </c>
@@ -6053,8 +6428,11 @@
       <c r="J128">
         <v>24.37</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K128">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>7304</v>
       </c>
@@ -6085,8 +6463,11 @@
       <c r="J129">
         <v>16.75</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K129">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>7305</v>
       </c>
@@ -6117,8 +6498,11 @@
       <c r="J130">
         <v>43.74</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>7306</v>
       </c>
@@ -6149,8 +6533,11 @@
       <c r="J131">
         <v>53.63</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K131">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>7307</v>
       </c>
@@ -6181,8 +6568,11 @@
       <c r="J132">
         <v>58.13</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K132">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>7308</v>
       </c>
@@ -6213,8 +6603,11 @@
       <c r="J133">
         <v>65.180000000000007</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>7309</v>
       </c>
@@ -6245,8 +6638,11 @@
       <c r="J134">
         <v>62.21</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>7401</v>
       </c>
@@ -6277,8 +6673,11 @@
       <c r="J135">
         <v>17.11</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K135">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>7402</v>
       </c>
@@ -6309,8 +6708,11 @@
       <c r="J136">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K136">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>7403</v>
       </c>
@@ -6341,8 +6743,11 @@
       <c r="J137">
         <v>67.349999999999994</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K137">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>7404</v>
       </c>
@@ -6373,8 +6778,11 @@
       <c r="J138">
         <v>24.88</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K138">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>7405</v>
       </c>
@@ -6405,8 +6813,11 @@
       <c r="J139">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K139">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>7406</v>
       </c>
@@ -6437,8 +6848,11 @@
       <c r="J140">
         <v>25.23</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K140">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>7407</v>
       </c>
@@ -6469,8 +6883,11 @@
       <c r="J141">
         <v>36.590000000000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K141">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>7408</v>
       </c>
@@ -6501,8 +6918,11 @@
       <c r="J142">
         <v>59.71</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K142">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>8101</v>
       </c>
@@ -6533,8 +6953,11 @@
       <c r="J143">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K143">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>8102</v>
       </c>
@@ -6565,8 +6988,11 @@
       <c r="J144">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K144">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>8103</v>
       </c>
@@ -6594,8 +7020,11 @@
       <c r="J145">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K145">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>8104</v>
       </c>
@@ -6626,8 +7055,11 @@
       <c r="J146">
         <v>55.08</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K146">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>8105</v>
       </c>
@@ -6658,8 +7090,11 @@
       <c r="J147">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K147">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>8106</v>
       </c>
@@ -6690,8 +7125,11 @@
       <c r="J148">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K148">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>8107</v>
       </c>
@@ -6722,8 +7160,11 @@
       <c r="J149">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K149">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>8108</v>
       </c>
@@ -6751,8 +7192,11 @@
       <c r="J150">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K150">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>8109</v>
       </c>
@@ -6783,8 +7227,11 @@
       <c r="J151">
         <v>27.03</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K151">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>8110</v>
       </c>
@@ -6815,8 +7262,11 @@
       <c r="J152">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K152">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>8111</v>
       </c>
@@ -6847,8 +7297,11 @@
       <c r="J153">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K153">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>8112</v>
       </c>
@@ -6876,8 +7329,11 @@
       <c r="J154">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K154">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>8201</v>
       </c>
@@ -6908,8 +7364,11 @@
       <c r="J155">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K155">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>8202</v>
       </c>
@@ -6940,8 +7399,11 @@
       <c r="J156">
         <v>23.18</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K156">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>8203</v>
       </c>
@@ -6972,8 +7434,11 @@
       <c r="J157">
         <v>44.21</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K157">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>8204</v>
       </c>
@@ -7004,8 +7469,11 @@
       <c r="J158">
         <v>48.43</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K158">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>8205</v>
       </c>
@@ -7036,8 +7504,11 @@
       <c r="J159">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K159">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>8206</v>
       </c>
@@ -7068,8 +7539,11 @@
       <c r="J160">
         <v>10.16</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>8207</v>
       </c>
@@ -7100,8 +7574,11 @@
       <c r="J161">
         <v>61.49</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K161">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>8301</v>
       </c>
@@ -7132,8 +7609,11 @@
       <c r="J162">
         <v>24.65</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K162">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>8302</v>
       </c>
@@ -7164,8 +7644,11 @@
       <c r="J163">
         <v>50.02</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K163">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>8303</v>
       </c>
@@ -7196,8 +7679,11 @@
       <c r="J164">
         <v>22.66</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K164">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>8304</v>
       </c>
@@ -7228,8 +7714,11 @@
       <c r="J165">
         <v>27.06</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K165">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>8305</v>
       </c>
@@ -7260,8 +7749,11 @@
       <c r="J166">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K166">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>8306</v>
       </c>
@@ -7292,8 +7784,11 @@
       <c r="J167">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K167">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>8307</v>
       </c>
@@ -7324,8 +7819,11 @@
       <c r="J168">
         <v>36.07</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K168">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>8308</v>
       </c>
@@ -7356,8 +7854,11 @@
       <c r="J169">
         <v>50.08</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K169">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>8309</v>
       </c>
@@ -7388,8 +7889,11 @@
       <c r="J170">
         <v>38.92</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K170">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>8310</v>
       </c>
@@ -7420,8 +7924,11 @@
       <c r="J171">
         <v>14.81</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>8311</v>
       </c>
@@ -7452,8 +7959,11 @@
       <c r="J172">
         <v>40.21</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K172">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>8312</v>
       </c>
@@ -7484,8 +7994,11 @@
       <c r="J173">
         <v>13.81</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K173">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>8313</v>
       </c>
@@ -7516,8 +8029,11 @@
       <c r="J174">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K174">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>8314</v>
       </c>
@@ -7545,8 +8061,11 @@
       <c r="J175">
         <v>100</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K175">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>9101</v>
       </c>
@@ -7577,8 +8096,11 @@
       <c r="J176">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K176">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>9102</v>
       </c>
@@ -7609,8 +8131,11 @@
       <c r="J177">
         <v>42.97</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K177">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>9103</v>
       </c>
@@ -7641,8 +8166,11 @@
       <c r="J178">
         <v>47.73</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K178">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>9104</v>
       </c>
@@ -7673,8 +8201,11 @@
       <c r="J179">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K179">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>9105</v>
       </c>
@@ -7705,8 +8236,11 @@
       <c r="J180">
         <v>66.13</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K180">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>9106</v>
       </c>
@@ -7737,8 +8271,11 @@
       <c r="J181">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K181">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>9107</v>
       </c>
@@ -7769,8 +8306,11 @@
       <c r="J182">
         <v>27.04</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K182">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>9108</v>
       </c>
@@ -7801,8 +8341,11 @@
       <c r="J183">
         <v>25.99</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K183">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>9109</v>
       </c>
@@ -7833,8 +8376,11 @@
       <c r="J184">
         <v>27.65</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K184">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>9110</v>
       </c>
@@ -7865,8 +8411,11 @@
       <c r="J185">
         <v>52.51</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>9111</v>
       </c>
@@ -7897,8 +8446,11 @@
       <c r="J186">
         <v>38.479999999999997</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K186">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>9112</v>
       </c>
@@ -7926,8 +8478,11 @@
       <c r="J187">
         <v>38.380000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K187">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>9113</v>
       </c>
@@ -7958,8 +8513,11 @@
       <c r="J188">
         <v>45.94</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K188">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>9114</v>
       </c>
@@ -7990,8 +8548,11 @@
       <c r="J189">
         <v>30.79</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K189">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>9115</v>
       </c>
@@ -8022,8 +8583,11 @@
       <c r="J190">
         <v>36.93</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K190">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>9116</v>
       </c>
@@ -8054,8 +8618,11 @@
       <c r="J191">
         <v>76.930000000000007</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K191">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>9117</v>
       </c>
@@ -8086,8 +8653,11 @@
       <c r="J192">
         <v>64.760000000000005</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K192">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>9118</v>
       </c>
@@ -8118,8 +8688,11 @@
       <c r="J193">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K193">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>9119</v>
       </c>
@@ -8150,8 +8723,11 @@
       <c r="J194">
         <v>40.17</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K194">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>9120</v>
       </c>
@@ -8182,8 +8758,11 @@
       <c r="J195">
         <v>34.67</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K195">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>9121</v>
       </c>
@@ -8211,8 +8790,11 @@
       <c r="J196">
         <v>61.49</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K196">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>9201</v>
       </c>
@@ -8243,8 +8825,11 @@
       <c r="J197">
         <v>6.78</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K197">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>9202</v>
       </c>
@@ -8275,8 +8860,11 @@
       <c r="J198">
         <v>24.02</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K198">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>9203</v>
       </c>
@@ -8307,8 +8895,11 @@
       <c r="J199">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K199">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>9204</v>
       </c>
@@ -8339,8 +8930,11 @@
       <c r="J200">
         <v>50.77</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K200">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>9205</v>
       </c>
@@ -8371,8 +8965,11 @@
       <c r="J201">
         <v>64.89</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K201">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>9206</v>
       </c>
@@ -8403,8 +9000,11 @@
       <c r="J202">
         <v>34.35</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K202">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>9207</v>
       </c>
@@ -8435,8 +9035,11 @@
       <c r="J203">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K203">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>9208</v>
       </c>
@@ -8467,8 +9070,11 @@
       <c r="J204">
         <v>34.770000000000003</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K204">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>9209</v>
       </c>
@@ -8499,8 +9105,11 @@
       <c r="J205">
         <v>16.03</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K205">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>9210</v>
       </c>
@@ -8531,8 +9140,11 @@
       <c r="J206">
         <v>21.39</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K206">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>9211</v>
       </c>
@@ -8563,8 +9175,11 @@
       <c r="J207">
         <v>26.18</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K207">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>10101</v>
       </c>
@@ -8595,8 +9210,11 @@
       <c r="J208">
         <v>10.48</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K208">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>10102</v>
       </c>
@@ -8627,8 +9245,11 @@
       <c r="J209">
         <v>50.92</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K209">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>10103</v>
       </c>
@@ -8659,8 +9280,11 @@
       <c r="J210">
         <v>100</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K210">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>10104</v>
       </c>
@@ -8691,8 +9315,11 @@
       <c r="J211">
         <v>36.71</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K211">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>10105</v>
       </c>
@@ -8723,8 +9350,11 @@
       <c r="J212">
         <v>28.03</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K212">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>10106</v>
       </c>
@@ -8755,8 +9385,11 @@
       <c r="J213">
         <v>49.49</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K213">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>10107</v>
       </c>
@@ -8787,8 +9420,11 @@
       <c r="J214">
         <v>17.79</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K214">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>10108</v>
       </c>
@@ -8819,8 +9455,11 @@
       <c r="J215">
         <v>51.47</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K215">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>10109</v>
       </c>
@@ -8851,8 +9490,11 @@
       <c r="J216">
         <v>28.08</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K216">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>10201</v>
       </c>
@@ -8883,8 +9525,11 @@
       <c r="J217">
         <v>22.56</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K217">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>10202</v>
       </c>
@@ -8915,8 +9560,11 @@
       <c r="J218">
         <v>27.88</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K218">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>10203</v>
       </c>
@@ -8947,8 +9595,11 @@
       <c r="J219">
         <v>58.03</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K219">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>10204</v>
       </c>
@@ -8979,8 +9630,11 @@
       <c r="J220">
         <v>63.76</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K220">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>10205</v>
       </c>
@@ -9011,8 +9665,11 @@
       <c r="J221">
         <v>45.86</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K221">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>10206</v>
       </c>
@@ -9040,8 +9697,11 @@
       <c r="J222">
         <v>100</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K222">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>10207</v>
       </c>
@@ -9063,8 +9723,11 @@
       <c r="J223">
         <v>53.55</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K223">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>10208</v>
       </c>
@@ -9095,8 +9758,11 @@
       <c r="J224">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K224">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>10209</v>
       </c>
@@ -9127,8 +9793,11 @@
       <c r="J225">
         <v>66.36</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K225">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>10210</v>
       </c>
@@ -9159,8 +9828,11 @@
       <c r="J226">
         <v>59.29</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K226">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>10301</v>
       </c>
@@ -9191,8 +9863,11 @@
       <c r="J227">
         <v>8.56</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K227">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>10302</v>
       </c>
@@ -9223,8 +9898,11 @@
       <c r="J228">
         <v>76.58</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K228">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>10303</v>
       </c>
@@ -9255,8 +9933,11 @@
       <c r="J229">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K229">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>10304</v>
       </c>
@@ -9276,7 +9957,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>10305</v>
       </c>
@@ -9307,8 +9988,11 @@
       <c r="J231">
         <v>46.51</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K231">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>10306</v>
       </c>
@@ -9339,8 +10023,11 @@
       <c r="J232">
         <v>79.430000000000007</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K232">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>10307</v>
       </c>
@@ -9371,8 +10058,11 @@
       <c r="J233">
         <v>51.67</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K233">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>10401</v>
       </c>
@@ -9403,8 +10093,11 @@
       <c r="J234">
         <v>65.819999999999993</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K234">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>10402</v>
       </c>
@@ -9435,8 +10128,11 @@
       <c r="J235">
         <v>30.46</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K235">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>10403</v>
       </c>
@@ -9467,8 +10163,11 @@
       <c r="J236">
         <v>56.24</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K236">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>10404</v>
       </c>
@@ -9499,8 +10198,11 @@
       <c r="J237">
         <v>26.32</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K237">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>11101</v>
       </c>
@@ -9531,8 +10233,11 @@
       <c r="J238">
         <v>12.37</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K238">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>11102</v>
       </c>
@@ -9558,7 +10263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>11201</v>
       </c>
@@ -9589,8 +10294,11 @@
       <c r="J240">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K240">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>11202</v>
       </c>
@@ -9621,8 +10329,11 @@
       <c r="J241">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K241">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>11203</v>
       </c>
@@ -9653,8 +10364,11 @@
       <c r="J242">
         <v>9.58</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K242">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>11301</v>
       </c>
@@ -9685,8 +10399,11 @@
       <c r="J243">
         <v>16.78</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K243">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>11302</v>
       </c>
@@ -9717,8 +10434,11 @@
       <c r="J244">
         <v>100</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>11303</v>
       </c>
@@ -9746,8 +10466,11 @@
       <c r="J245">
         <v>100</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>11401</v>
       </c>
@@ -9778,8 +10501,11 @@
       <c r="J246">
         <v>33.590000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K246">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>11402</v>
       </c>
@@ -9810,8 +10536,11 @@
       <c r="J247">
         <v>100</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K247">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>12101</v>
       </c>
@@ -9842,8 +10571,11 @@
       <c r="J248">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K248">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>12102</v>
       </c>
@@ -9871,8 +10603,11 @@
       <c r="J249">
         <v>100</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K249">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>12103</v>
       </c>
@@ -9900,8 +10635,11 @@
       <c r="J250">
         <v>100</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K250">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>12104</v>
       </c>
@@ -9929,8 +10667,11 @@
       <c r="J251">
         <v>100</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K251">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>12201</v>
       </c>
@@ -9961,8 +10702,11 @@
       <c r="J252">
         <v>10.69</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K252">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>12301</v>
       </c>
@@ -9993,8 +10737,11 @@
       <c r="J253">
         <v>12.13</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K253">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>12302</v>
       </c>
@@ -10022,8 +10769,11 @@
       <c r="J254">
         <v>100</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K254">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>12303</v>
       </c>
@@ -10051,8 +10801,11 @@
       <c r="J255">
         <v>100</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K255">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>12401</v>
       </c>
@@ -10083,8 +10836,11 @@
       <c r="J256">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K256">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>12402</v>
       </c>
@@ -10112,8 +10868,11 @@
       <c r="J257">
         <v>100</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K257">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>13101</v>
       </c>
@@ -10141,8 +10900,11 @@
       <c r="J258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K258">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>13102</v>
       </c>
@@ -10170,8 +10932,11 @@
       <c r="J259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K259">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>13103</v>
       </c>
@@ -10199,8 +10964,11 @@
       <c r="J260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K260">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>13104</v>
       </c>
@@ -10228,8 +10996,11 @@
       <c r="J261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K261">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>13105</v>
       </c>
@@ -10257,8 +11028,11 @@
       <c r="J262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K262">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>13106</v>
       </c>
@@ -10286,8 +11060,11 @@
       <c r="J263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K263">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>13107</v>
       </c>
@@ -10315,8 +11092,11 @@
       <c r="J264">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K264">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>13108</v>
       </c>
@@ -10344,8 +11124,11 @@
       <c r="J265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K265">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>13109</v>
       </c>
@@ -10371,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>13110</v>
       </c>
@@ -10399,8 +11182,11 @@
       <c r="J267">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K267">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>13111</v>
       </c>
@@ -10428,8 +11214,11 @@
       <c r="J268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K268">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>13112</v>
       </c>
@@ -10457,8 +11246,11 @@
       <c r="J269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K269">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>13113</v>
       </c>
@@ -10486,8 +11278,11 @@
       <c r="J270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K270">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>13114</v>
       </c>
@@ -10515,8 +11310,11 @@
       <c r="J271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K271">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>13115</v>
       </c>
@@ -10544,8 +11342,11 @@
       <c r="J272">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K272">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>13116</v>
       </c>
@@ -10573,8 +11374,11 @@
       <c r="J273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K273">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>13117</v>
       </c>
@@ -10602,8 +11406,11 @@
       <c r="J274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K274">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>13118</v>
       </c>
@@ -10631,8 +11438,11 @@
       <c r="J275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K275">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>13119</v>
       </c>
@@ -10660,8 +11470,11 @@
       <c r="J276">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K276">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>13120</v>
       </c>
@@ -10689,8 +11502,11 @@
       <c r="J277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K277">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>13121</v>
       </c>
@@ -10718,8 +11534,11 @@
       <c r="J278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K278">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>13122</v>
       </c>
@@ -10747,8 +11566,11 @@
       <c r="J279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K279">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>13123</v>
       </c>
@@ -10776,8 +11598,11 @@
       <c r="J280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K280">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>13124</v>
       </c>
@@ -10805,8 +11630,11 @@
       <c r="J281">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K281">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>13125</v>
       </c>
@@ -10834,8 +11662,11 @@
       <c r="J282">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K282">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>13126</v>
       </c>
@@ -10863,8 +11694,11 @@
       <c r="J283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K283">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>13127</v>
       </c>
@@ -10892,8 +11726,11 @@
       <c r="J284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K284">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>13128</v>
       </c>
@@ -10921,8 +11758,11 @@
       <c r="J285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K285">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>13129</v>
       </c>
@@ -10950,8 +11790,11 @@
       <c r="J286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K286">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>13130</v>
       </c>
@@ -10979,8 +11822,11 @@
       <c r="J287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K287">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>13131</v>
       </c>
@@ -11008,8 +11854,11 @@
       <c r="J288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K288">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>13132</v>
       </c>
@@ -11037,8 +11886,11 @@
       <c r="J289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K289">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>13201</v>
       </c>
@@ -11069,8 +11921,11 @@
       <c r="J290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K290">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>13202</v>
       </c>
@@ -11101,8 +11956,11 @@
       <c r="J291">
         <v>57.43</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K291">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>13203</v>
       </c>
@@ -11133,8 +11991,11 @@
       <c r="J292">
         <v>34.86</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K292">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>13301</v>
       </c>
@@ -11165,8 +12026,11 @@
       <c r="J293">
         <v>19.34</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K293">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>13302</v>
       </c>
@@ -11195,7 +12059,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>13303</v>
       </c>
@@ -11226,8 +12090,11 @@
       <c r="J295">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K295">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>13401</v>
       </c>
@@ -11258,8 +12125,11 @@
       <c r="J296">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K296">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>13402</v>
       </c>
@@ -11290,8 +12160,11 @@
       <c r="J297">
         <v>13.79</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K297">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>13403</v>
       </c>
@@ -11322,8 +12195,11 @@
       <c r="J298">
         <v>56.06</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K298">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>13404</v>
       </c>
@@ -11354,8 +12230,11 @@
       <c r="J299">
         <v>35.049999999999997</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K299">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>13501</v>
       </c>
@@ -11386,8 +12265,11 @@
       <c r="J300">
         <v>30.44</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K300">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>13502</v>
       </c>
@@ -11416,7 +12298,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>13503</v>
       </c>
@@ -11447,8 +12329,11 @@
       <c r="J302">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K302">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>13504</v>
       </c>
@@ -11479,8 +12364,11 @@
       <c r="J303">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K303">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>13505</v>
       </c>
@@ -11511,8 +12399,11 @@
       <c r="J304">
         <v>100</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K304">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>13601</v>
       </c>
@@ -11543,8 +12434,11 @@
       <c r="J305">
         <v>20.56</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K305">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>13602</v>
       </c>
@@ -11575,8 +12469,11 @@
       <c r="J306">
         <v>16.21</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K306">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>13603</v>
       </c>
@@ -11607,8 +12504,11 @@
       <c r="J307">
         <v>25.06</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K307">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>13604</v>
       </c>
@@ -11636,8 +12536,11 @@
       <c r="J308">
         <v>11.69</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K308">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>13605</v>
       </c>
@@ -11668,8 +12571,11 @@
       <c r="J309">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K309">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>14101</v>
       </c>
@@ -11700,8 +12606,11 @@
       <c r="J310">
         <v>6.71</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K310">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>14102</v>
       </c>
@@ -11732,8 +12641,11 @@
       <c r="J311">
         <v>33.54</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K311">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>14103</v>
       </c>
@@ -11764,8 +12676,11 @@
       <c r="J312">
         <v>30.44</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K312">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>14104</v>
       </c>
@@ -11796,8 +12711,11 @@
       <c r="J313">
         <v>48.22</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K313">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>14105</v>
       </c>
@@ -11828,8 +12746,11 @@
       <c r="J314">
         <v>35.130000000000003</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K314">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>14106</v>
       </c>
@@ -11860,8 +12781,11 @@
       <c r="J315">
         <v>53.03</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K315">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>14107</v>
       </c>
@@ -11892,8 +12816,11 @@
       <c r="J316">
         <v>34.04</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K316">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>14108</v>
       </c>
@@ -11924,8 +12851,11 @@
       <c r="J317">
         <v>56.12</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K317">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>14201</v>
       </c>
@@ -11954,7 +12884,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>14202</v>
       </c>
@@ -11985,8 +12915,11 @@
       <c r="J319">
         <v>41.89</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K319">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>14203</v>
       </c>
@@ -12017,8 +12950,11 @@
       <c r="J320">
         <v>76.52</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K320">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>14204</v>
       </c>
@@ -12049,8 +12985,11 @@
       <c r="J321">
         <v>42.69</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K321">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>15101</v>
       </c>
@@ -12081,8 +13020,11 @@
       <c r="J322">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K322">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>15102</v>
       </c>
@@ -12111,7 +13053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>15201</v>
       </c>
@@ -12142,8 +13084,11 @@
       <c r="J324">
         <v>22.63</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K324">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>15202</v>
       </c>
@@ -12171,8 +13116,11 @@
       <c r="J325">
         <v>100</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K325">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>16101</v>
       </c>
@@ -12203,8 +13151,11 @@
       <c r="J326">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K326">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>16102</v>
       </c>
@@ -12235,8 +13186,11 @@
       <c r="J327">
         <v>36.520000000000003</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K327">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>16103</v>
       </c>
@@ -12264,8 +13218,11 @@
       <c r="J328">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K328">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>16104</v>
       </c>
@@ -12296,8 +13253,11 @@
       <c r="J329">
         <v>58.02</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K329">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>16105</v>
       </c>
@@ -12328,8 +13288,11 @@
       <c r="J330">
         <v>49.58</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K330">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>16106</v>
       </c>
@@ -12360,8 +13323,11 @@
       <c r="J331">
         <v>48.27</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K331">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>16107</v>
       </c>
@@ -12392,8 +13358,11 @@
       <c r="J332">
         <v>36.07</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K332">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>16108</v>
       </c>
@@ -12422,7 +13391,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>16109</v>
       </c>
@@ -12453,8 +13422,11 @@
       <c r="J334">
         <v>21.46</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K334">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>16201</v>
       </c>
@@ -12485,8 +13457,11 @@
       <c r="J335">
         <v>15.69</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K335">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>16202</v>
       </c>
@@ -12515,7 +13490,7 @@
         <v>71.63</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>16203</v>
       </c>
@@ -12546,8 +13521,11 @@
       <c r="J337">
         <v>25.29</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K337">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>16204</v>
       </c>
@@ -12578,8 +13556,11 @@
       <c r="J338">
         <v>70.22</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K338">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>16205</v>
       </c>
@@ -12610,8 +13591,11 @@
       <c r="J339">
         <v>61.42</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K339">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>16206</v>
       </c>
@@ -12642,8 +13626,11 @@
       <c r="J340">
         <v>71.94</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K340">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>16207</v>
       </c>
@@ -12674,8 +13661,11 @@
       <c r="J341">
         <v>64.41</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K341">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>16301</v>
       </c>
@@ -12706,8 +13696,11 @@
       <c r="J342">
         <v>35.26</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K342">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>16302</v>
       </c>
@@ -12738,8 +13731,11 @@
       <c r="J343">
         <v>63.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K343">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>16303</v>
       </c>
@@ -12770,8 +13766,11 @@
       <c r="J344">
         <v>89.63</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K344">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>16304</v>
       </c>
@@ -12802,8 +13801,11 @@
       <c r="J345">
         <v>63.31</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K345">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>16305</v>
       </c>
@@ -12833,6 +13835,9 @@
       </c>
       <c r="J346">
         <v>55.85</v>
+      </c>
+      <c r="K346">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
